--- a/output/time_results.xlsx
+++ b/output/time_results.xlsx
@@ -22,7 +22,7 @@
     <t>Train_time</t>
   </si>
   <si>
-    <t>BiVAECF</t>
+    <t>BiVAE</t>
   </si>
   <si>
     <t>EASEᴿ</t>
@@ -31,7 +31,7 @@
     <t>MostPop</t>
   </si>
   <si>
-    <t>TeRCEx</t>
+    <t>ETeR-X</t>
   </si>
   <si>
     <t>USEM</t>

--- a/output/time_results.xlsx
+++ b/output/time_results.xlsx
@@ -31,13 +31,13 @@
     <t>MostPop</t>
   </si>
   <si>
-    <t>ETeR-X</t>
-  </si>
-  <si>
-    <t>USEM</t>
+    <t>TRecX</t>
   </si>
   <si>
     <t>BERT</t>
+  </si>
+  <si>
+    <t>AITRecX</t>
   </si>
   <si>
     <t>Set</t>
@@ -502,10 +502,10 @@
         <v>179.7964928150177</v>
       </c>
       <c r="G4">
-        <v>4198.602324008942</v>
+        <v>9970.989691495895</v>
       </c>
       <c r="H4">
-        <v>9970.989691495895</v>
+        <v>6877.387166976929</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -526,10 +526,10 @@
         <v>37.14575386047363</v>
       </c>
       <c r="G5">
-        <v>3345.191141366959</v>
+        <v>992.1567485332489</v>
       </c>
       <c r="H5">
-        <v>992.1567485332489</v>
+        <v>4408.633643388748</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -552,10 +552,10 @@
         <v>667.8732690811157</v>
       </c>
       <c r="G6">
-        <v>142.6459674835205</v>
+        <v>4103.80993437767</v>
       </c>
       <c r="H6">
-        <v>4103.80993437767</v>
+        <v>324.8513634204865</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -576,10 +576,10 @@
         <v>9.554208993911743</v>
       </c>
       <c r="G7">
-        <v>287.4131686687469</v>
+        <v>2935.139235258102</v>
       </c>
       <c r="H7">
-        <v>2935.139235258102</v>
+        <v>704.5501158237457</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,10 +600,10 @@
         <v>74.51171398162842</v>
       </c>
       <c r="G8">
-        <v>95.36306858062744</v>
+        <v>3480.940505504608</v>
       </c>
       <c r="H8">
-        <v>3480.940505504608</v>
+        <v>1585.040477991104</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -624,10 +624,10 @@
         <v>119.6646575927734</v>
       </c>
       <c r="G9">
-        <v>62.45525884628296</v>
+        <v>2426.383432865143</v>
       </c>
       <c r="H9">
-        <v>2426.383432865143</v>
+        <v>137.3853771686554</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -648,10 +648,10 @@
         <v>35.80299949645996</v>
       </c>
       <c r="G10">
-        <v>118.9589469432831</v>
+        <v>2607.105662822723</v>
       </c>
       <c r="H10">
-        <v>2607.105662822723</v>
+        <v>127.2567572593689</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -674,10 +674,10 @@
         <v>17.09086942672729</v>
       </c>
       <c r="G11">
-        <v>309.5013952255249</v>
+        <v>2998.131769657135</v>
       </c>
       <c r="H11">
-        <v>2998.131769657135</v>
+        <v>163.4305446147919</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -698,10 +698,10 @@
         <v>151.5743391513824</v>
       </c>
       <c r="G12">
-        <v>828.8893673419952</v>
+        <v>32373.4896941185</v>
       </c>
       <c r="H12">
-        <v>32373.4896941185</v>
+        <v>16526.09252643585</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -722,10 +722,10 @@
         <v>224.0520765781403</v>
       </c>
       <c r="G13">
-        <v>1094.347886800766</v>
+        <v>54453.34705519676</v>
       </c>
       <c r="H13">
-        <v>54453.34705519676</v>
+        <v>48028.96248865128</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -746,10 +746,10 @@
         <v>359.0720317363739</v>
       </c>
       <c r="G14">
-        <v>17247.05885076523</v>
+        <v>214397.6955151558</v>
       </c>
       <c r="H14">
-        <v>214397.6955151558</v>
+        <v>105589.8217549324</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -770,10 +770,10 @@
         <v>646.7654030323029</v>
       </c>
       <c r="G15">
-        <v>2534.750314712524</v>
+        <v>146530.9495928288</v>
       </c>
       <c r="H15">
-        <v>146530.9495928288</v>
+        <v>164244.7924022675</v>
       </c>
     </row>
   </sheetData>
